--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3882.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3882.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.418969377733931</v>
+        <v>1.950639009475708</v>
       </c>
       <c r="B1">
-        <v>2.649224128234283</v>
+        <v>2.244920969009399</v>
       </c>
       <c r="C1">
-        <v>2.696112380900315</v>
+        <v>2.937027215957642</v>
       </c>
       <c r="D1">
-        <v>3.456821854695187</v>
+        <v>5.962118625640869</v>
       </c>
       <c r="E1">
-        <v>1.736217385003995</v>
+        <v>2.961672306060791</v>
       </c>
     </row>
   </sheetData>
